--- a/RawData/HemicellulosesFromStonePineHolmOakAndNorwaySpruceWithSubcriticalWaterExtraction.xlsx
+++ b/RawData/HemicellulosesFromStonePineHolmOakAndNorwaySpruceWithSubcriticalWaterExtraction.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C537F5E4-E22E-47BD-BE40-49550E704623}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3336FA4C-561C-40D7-9266-FBC586205E87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
   <si>
     <t>Reactor Conditions</t>
   </si>
@@ -220,6 +220,14 @@
   </si>
   <si>
     <t>mono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4826,30 +4834,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E424CE75-517A-4BE5-839E-10CE99A25717}">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="78" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="24" max="24" width="26" customWidth="1"/>
+    <col min="25" max="25" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4860,73 +4868,76 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>19</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>14</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>15</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>16</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>17</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>18</v>
       </c>
-      <c r="W2" t="s">
-        <v>20</v>
-      </c>
       <c r="X2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>10</v>
       </c>
@@ -4936,35 +4947,38 @@
       <c r="C3">
         <v>20</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <v>9.1348379629629637</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.86516203703703698</v>
       </c>
-      <c r="J3">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N3">
+      <c r="K3">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O3">
         <v>18.600000000000001</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.35010000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>15</v>
       </c>
@@ -4974,35 +4988,38 @@
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>57</v>
       </c>
       <c r="E4">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>14.134837962962964</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.86516203703703698</v>
       </c>
-      <c r="J4">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N4">
+      <c r="K4">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O4">
         <v>18.600000000000001</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.7298</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>20</v>
       </c>
@@ -5012,35 +5029,38 @@
       <c r="C5">
         <v>20</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>57</v>
       </c>
       <c r="E5">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>19.134837962962962</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.86516203703703698</v>
       </c>
-      <c r="J5">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N5">
+      <c r="K5">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O5">
         <v>18.600000000000001</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>2.4853999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>25</v>
       </c>
@@ -5050,35 +5070,38 @@
       <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="D6" t="s">
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>24.134837962962962</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.86516203703703698</v>
       </c>
-      <c r="J6">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N6">
+      <c r="K6">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O6">
         <v>18.600000000000001</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>4.3829000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>30</v>
       </c>
@@ -5088,35 +5111,38 @@
       <c r="C7">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>29.134837962962962</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.86516203703703698</v>
       </c>
-      <c r="J7">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N7">
+      <c r="K7">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O7">
         <v>18.600000000000001</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>7.3582999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>70</v>
       </c>
@@ -5126,35 +5152,38 @@
       <c r="C8">
         <v>20</v>
       </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="D8" t="s">
+        <v>57</v>
       </c>
       <c r="E8">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <v>69.134837962962962</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.86516203703703698</v>
       </c>
-      <c r="J8">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N8">
+      <c r="K8">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O8">
         <v>18.600000000000001</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>9.1706000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>4</v>
       </c>
@@ -5164,35 +5193,38 @@
       <c r="C9">
         <v>20</v>
       </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="D9" t="s">
+        <v>57</v>
       </c>
       <c r="E9">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>3.8269675925925926</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.17303240740740738</v>
       </c>
-      <c r="J9">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N9">
+      <c r="K9">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O9">
         <v>18.600000000000001</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>24</v>
       </c>
@@ -5202,35 +5234,38 @@
       <c r="C10">
         <v>20</v>
       </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="D10" t="s">
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
         <v>23.826967592592592</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.17303240740740738</v>
       </c>
-      <c r="J10">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N10">
+      <c r="K10">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O10">
         <v>18.600000000000001</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>44</v>
       </c>
@@ -5240,35 +5275,38 @@
       <c r="C11">
         <v>20</v>
       </c>
-      <c r="D11">
-        <v>0</v>
+      <c r="D11" t="s">
+        <v>57</v>
       </c>
       <c r="E11">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
         <v>43.826967592592595</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.17303240740740738</v>
       </c>
-      <c r="J11">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N11">
+      <c r="K11">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O11">
         <v>18.600000000000001</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>84</v>
       </c>
@@ -5278,35 +5316,38 @@
       <c r="C12">
         <v>20</v>
       </c>
-      <c r="D12">
-        <v>0</v>
+      <c r="D12" t="s">
+        <v>57</v>
       </c>
       <c r="E12">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
         <v>83.826967592592595</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.17303240740740738</v>
       </c>
-      <c r="J12">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N12">
+      <c r="K12">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O12">
         <v>18.600000000000001</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>0.107</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>144</v>
       </c>
@@ -5316,35 +5357,38 @@
       <c r="C13">
         <v>20</v>
       </c>
-      <c r="D13">
-        <v>0</v>
+      <c r="D13" t="s">
+        <v>57</v>
       </c>
       <c r="E13">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
         <v>143.82696759259258</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.17303240740740738</v>
       </c>
-      <c r="J13">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N13">
+      <c r="K13">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O13">
         <v>18.600000000000001</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>224</v>
       </c>
@@ -5354,35 +5398,38 @@
       <c r="C14">
         <v>20</v>
       </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="D14" t="s">
+        <v>57</v>
       </c>
       <c r="E14">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
         <v>223.82696759259258</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.17303240740740738</v>
       </c>
-      <c r="J14">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N14">
+      <c r="K14">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O14">
         <v>18.600000000000001</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>0.42099999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>5</v>
       </c>
@@ -5392,35 +5439,38 @@
       <c r="C15">
         <v>20</v>
       </c>
-      <c r="D15">
-        <v>0</v>
+      <c r="D15" t="s">
+        <v>57</v>
       </c>
       <c r="E15">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
         <v>4.6539351851851851</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.34606481481481477</v>
       </c>
-      <c r="J15">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N15">
+      <c r="K15">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O15">
         <v>18.600000000000001</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>0.252</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>25</v>
       </c>
@@ -5430,35 +5480,38 @@
       <c r="C16">
         <v>20</v>
       </c>
-      <c r="D16">
-        <v>0</v>
+      <c r="D16" t="s">
+        <v>57</v>
       </c>
       <c r="E16">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>24.653935185185187</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.34606481481481477</v>
       </c>
-      <c r="J16">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N16">
+      <c r="K16">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O16">
         <v>18.600000000000001</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.151</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17">
         <v>45</v>
       </c>
@@ -5468,35 +5521,38 @@
       <c r="C17">
         <v>20</v>
       </c>
-      <c r="D17">
-        <v>0</v>
+      <c r="D17" t="s">
+        <v>57</v>
       </c>
       <c r="E17">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>44.653935185185183</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.34606481481481477</v>
       </c>
-      <c r="J17">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N17">
+      <c r="K17">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O17">
         <v>18.600000000000001</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18">
         <v>75</v>
       </c>
@@ -5506,35 +5562,38 @@
       <c r="C18">
         <v>20</v>
       </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="D18" t="s">
+        <v>57</v>
       </c>
       <c r="E18">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
         <v>74.65393518518519</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.34606481481481477</v>
       </c>
-      <c r="J18">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N18">
+      <c r="K18">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O18">
         <v>18.600000000000001</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.495</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>115</v>
       </c>
@@ -5544,35 +5603,38 @@
       <c r="C19">
         <v>20</v>
       </c>
-      <c r="D19">
-        <v>0</v>
+      <c r="D19" t="s">
+        <v>57</v>
       </c>
       <c r="E19">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
         <v>114.65393518518519</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.34606481481481477</v>
       </c>
-      <c r="J19">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N19">
+      <c r="K19">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O19">
         <v>18.600000000000001</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20">
         <v>165</v>
       </c>
@@ -5582,35 +5644,38 @@
       <c r="C20">
         <v>20</v>
       </c>
-      <c r="D20">
-        <v>0</v>
+      <c r="D20" t="s">
+        <v>57</v>
       </c>
       <c r="E20">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
         <v>164.65393518518519</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.34606481481481477</v>
       </c>
-      <c r="J20">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N20">
+      <c r="K20">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O20">
         <v>18.600000000000001</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>3.0230000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>6</v>
       </c>
@@ -5620,35 +5685,38 @@
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21">
-        <v>0</v>
+      <c r="D21" t="s">
+        <v>57</v>
       </c>
       <c r="E21">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
         <v>5.4809027777777777</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.51909722222222221</v>
       </c>
-      <c r="J21">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N21">
+      <c r="K21">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O21">
         <v>18.600000000000001</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>16</v>
       </c>
@@ -5658,35 +5726,38 @@
       <c r="C22">
         <v>20</v>
       </c>
-      <c r="D22">
-        <v>0</v>
+      <c r="D22" t="s">
+        <v>57</v>
       </c>
       <c r="E22">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
         <v>15.480902777777779</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.51909722222222221</v>
       </c>
-      <c r="J22">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N22">
+      <c r="K22">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O22">
         <v>18.600000000000001</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="A23">
         <v>46</v>
       </c>
@@ -5696,35 +5767,38 @@
       <c r="C23">
         <v>20</v>
       </c>
-      <c r="D23">
-        <v>0</v>
+      <c r="D23" t="s">
+        <v>57</v>
       </c>
       <c r="E23">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
         <v>45.480902777777779</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.51909722222222221</v>
       </c>
-      <c r="J23">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N23">
+      <c r="K23">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O23">
         <v>18.600000000000001</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>86</v>
       </c>
@@ -5734,35 +5808,38 @@
       <c r="C24">
         <v>20</v>
       </c>
-      <c r="D24">
-        <v>0</v>
+      <c r="D24" t="s">
+        <v>57</v>
       </c>
       <c r="E24">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
         <v>85.480902777777771</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.51909722222222221</v>
       </c>
-      <c r="J24">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N24">
+      <c r="K24">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O24">
         <v>18.600000000000001</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>2.9260000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:21">
       <c r="A25">
         <v>126</v>
       </c>
@@ -5772,35 +5849,38 @@
       <c r="C25">
         <v>20</v>
       </c>
-      <c r="D25">
-        <v>0</v>
+      <c r="D25" t="s">
+        <v>57</v>
       </c>
       <c r="E25">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
         <v>125.48090277777777</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.51909722222222221</v>
       </c>
-      <c r="J25">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N25">
+      <c r="K25">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O25">
         <v>18.600000000000001</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>4.9370000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:21">
       <c r="A26">
         <v>8</v>
       </c>
@@ -5810,35 +5890,38 @@
       <c r="C26">
         <v>20</v>
       </c>
-      <c r="D26">
-        <v>0</v>
+      <c r="D26" t="s">
+        <v>57</v>
       </c>
       <c r="E26">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>7.3078703703703702</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.69212962962962954</v>
       </c>
-      <c r="J26">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N26">
+      <c r="K26">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O26">
         <v>18.600000000000001</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>13</v>
       </c>
@@ -5848,35 +5931,38 @@
       <c r="C27">
         <v>20</v>
       </c>
-      <c r="D27">
-        <v>0</v>
+      <c r="D27" t="s">
+        <v>57</v>
       </c>
       <c r="E27">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
         <v>12.30787037037037</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.69212962962962954</v>
       </c>
-      <c r="J27">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N27">
+      <c r="K27">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O27">
         <v>18.600000000000001</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>18</v>
       </c>
@@ -5886,35 +5972,38 @@
       <c r="C28">
         <v>20</v>
       </c>
-      <c r="D28">
-        <v>0</v>
+      <c r="D28" t="s">
+        <v>57</v>
       </c>
       <c r="E28">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
         <v>17.30787037037037</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.69212962962962954</v>
       </c>
-      <c r="J28">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N28">
+      <c r="K28">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O28">
         <v>18.600000000000001</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:21">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5924,35 +6013,38 @@
       <c r="C29">
         <v>20</v>
       </c>
-      <c r="D29">
-        <v>0</v>
+      <c r="D29" t="s">
+        <v>57</v>
       </c>
       <c r="E29">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
         <v>27.30787037037037</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.69212962962962954</v>
       </c>
-      <c r="J29">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N29">
+      <c r="K29">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O29">
         <v>18.600000000000001</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1.6060000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:21">
       <c r="A30">
         <v>48</v>
       </c>
@@ -5962,35 +6054,38 @@
       <c r="C30">
         <v>20</v>
       </c>
-      <c r="D30">
-        <v>0</v>
+      <c r="D30" t="s">
+        <v>57</v>
       </c>
       <c r="E30">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
         <v>47.307870370370374</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.69212962962962954</v>
       </c>
-      <c r="J30">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N30">
+      <c r="K30">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O30">
         <v>18.600000000000001</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>6.3140000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:21">
       <c r="A31">
         <v>88</v>
       </c>
@@ -6000,31 +6095,34 @@
       <c r="C31">
         <v>20</v>
       </c>
-      <c r="D31">
-        <v>0</v>
+      <c r="D31" t="s">
+        <v>57</v>
       </c>
       <c r="E31">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>23.80952380952381</v>
+        <v>1.625</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
         <v>87.307870370370367</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.69212962962962954</v>
       </c>
-      <c r="J31">
-        <v>28.896321070234116</v>
-      </c>
-      <c r="N31">
+      <c r="K31">
+        <v>28.896321070234116</v>
+      </c>
+      <c r="O31">
         <v>18.600000000000001</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>8.9009999999999998</v>
       </c>
     </row>
